--- a/customer_data1.xlsx
+++ b/customer_data1.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suraj\jup-note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E8B471-C79A-4BA9-A43A-6E4CA1A7FFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1856B-1790-4F4A-9AA8-358365305B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$D$1:$D$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$D$1:$D$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="188">
   <si>
     <t>CustomerID</t>
   </si>
@@ -589,13 +590,22 @@
   </si>
   <si>
     <t>XXXX</t>
+  </si>
+  <si>
+    <t>Income avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City </t>
+  </si>
+  <si>
+    <t>City  Frequent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +618,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -654,7 +672,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -662,15 +682,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,11 +1007,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DA17E6-E352-4A31-8CCE-9854DCD1F4C2}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>58285.706896551725</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60 D65 D68 D71 D76"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,6 +1097,9 @@
     <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1043,7 +1139,7 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3250,7 +3346,7 @@
       <c r="C60">
         <v>46</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="2"/>
       <c r="E60" t="s">
         <v>24</v>
       </c>
@@ -3438,7 +3534,7 @@
       <c r="C65">
         <v>30</v>
       </c>
-      <c r="D65" s="3"/>
+      <c r="D65" s="2"/>
       <c r="E65" t="s">
         <v>27</v>
       </c>
@@ -3550,7 +3646,7 @@
       <c r="C68">
         <v>54</v>
       </c>
-      <c r="D68" s="3"/>
+      <c r="D68" s="2"/>
       <c r="E68" t="s">
         <v>27</v>
       </c>
@@ -3662,7 +3758,7 @@
       <c r="C71">
         <v>36</v>
       </c>
-      <c r="D71" s="3"/>
+      <c r="D71" s="2"/>
       <c r="E71" t="s">
         <v>44</v>
       </c>
@@ -3850,7 +3946,7 @@
       <c r="C76">
         <v>42</v>
       </c>
-      <c r="D76" s="3"/>
+      <c r="D76" s="2"/>
       <c r="E76" t="s">
         <v>24</v>
       </c>
@@ -4111,5 +4207,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>